--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A32_入金時値引処理（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A32_入金時値引処理（補足資料）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="526">
   <si>
     <t>"WAITING"</t>
   </si>
@@ -1337,10 +1337,6 @@
   </si>
   <si>
     <t>営業単位ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"REV"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1995,23 +1991,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(NULL)
-※収益行として登録するため不要</t>
-    <rPh sb="8" eb="10">
-      <t>シュウエキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伝票内連番
 ※同時に作成される本体行と同じ値</t>
     <rPh sb="19" eb="20">
@@ -2020,11 +1999,6 @@
     <rPh sb="21" eb="22">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(NULL)
-※収益行として登録するため不要</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2082,44 +2056,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">"REV"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※税金行も収益行で作成</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>ゼイキン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウエキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>税名称</t>
     <rPh sb="0" eb="1">
       <t>ゼイ</t>
@@ -2129,12 +2065,75 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>伝票番号("NE"＋シーケンス)
+※xxcok_common_pkg.get_slip_number_f
+&lt;伝票番号取得&gt;
+※同時に作成される収益行の取引明細DFF1</t>
+    <rPh sb="0" eb="2">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"販売手数料"
+※プロファイル.XXCOK:仕訳カテゴリ_販売手数料
+※同時に作成される収益行の取引明細コンテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TAX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"LINE"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TAX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"REV"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
@@ -2192,13 +2191,28 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,6 +2273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -2574,7 +2594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2719,11 +2739,20 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2733,6 +2762,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDE9D9"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFDCE6F1"/>
       <color rgb="FFCCFFCC"/>
@@ -2740,9 +2772,6 @@
       <color rgb="FF003399"/>
       <color rgb="FFCC00CC"/>
       <color rgb="FF008000"/>
-      <color rgb="FF99FF99"/>
-      <color rgb="FF66CCFF"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3040,7 +3069,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:F308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -3055,10 +3083,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3066,16 +3094,16 @@
         <v>373</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="12.75" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>74</v>
       </c>
@@ -3085,7 +3113,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:6" ht="24.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>75</v>
       </c>
@@ -3093,10 +3121,10 @@
         <v>394</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="35"/>
     </row>
@@ -3105,32 +3133,32 @@
         <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>451</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>452</v>
       </c>
       <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>375</v>
       </c>
@@ -3140,7 +3168,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>376</v>
       </c>
@@ -3150,7 +3178,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
@@ -3160,7 +3188,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
@@ -3170,7 +3198,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
@@ -3180,7 +3208,7 @@
       <c r="D11" s="26"/>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -3198,10 +3226,10 @@
         <v>395</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F13" s="35"/>
     </row>
@@ -3213,14 +3241,14 @@
         <v>396</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>85</v>
       </c>
@@ -3230,8 +3258,8 @@
       <c r="D15" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>386</v>
+      <c r="E15" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="F15" s="35"/>
     </row>
@@ -3243,10 +3271,10 @@
         <v>387</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F16" s="35"/>
     </row>
@@ -3254,14 +3282,14 @@
       <c r="B17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="50" t="s">
         <v>398</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F17" s="35"/>
     </row>
@@ -3273,10 +3301,10 @@
         <v>388</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>431</v>
       </c>
       <c r="F18" s="35"/>
     </row>
@@ -3285,17 +3313,17 @@
         <v>87</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D19" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>498</v>
-      </c>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
@@ -3311,17 +3339,17 @@
         <v>89</v>
       </c>
       <c r="C21" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="E21" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>496</v>
-      </c>
       <c r="F21" s="35"/>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>90</v>
       </c>
@@ -3332,7 +3360,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>91</v>
       </c>
@@ -3342,7 +3370,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="28"/>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -3360,14 +3388,14 @@
         <v>399</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>93</v>
       </c>
@@ -3385,14 +3413,14 @@
         <v>400</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
@@ -3402,7 +3430,7 @@
       <c r="D28" s="26"/>
       <c r="E28" s="28"/>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>96</v>
       </c>
@@ -3412,7 +3440,7 @@
       <c r="D29" s="26"/>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
@@ -3430,14 +3458,14 @@
         <v>401</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
         <v>98</v>
       </c>
@@ -3455,14 +3483,14 @@
         <v>402</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>100</v>
       </c>
@@ -3472,7 +3500,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -3482,7 +3510,7 @@
       <c r="D35" s="26"/>
       <c r="E35" s="28"/>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>102</v>
       </c>
@@ -3492,7 +3520,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="28"/>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>103</v>
       </c>
@@ -3502,7 +3530,7 @@
       <c r="D37" s="26"/>
       <c r="E37" s="28"/>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>104</v>
       </c>
@@ -3512,52 +3540,52 @@
       <c r="D38" s="26"/>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="B39" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>458</v>
+      <c r="D39" s="36" t="s">
+        <v>457</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F39" s="37"/>
     </row>
-    <row r="40" spans="2:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="B40" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="D40" s="48" t="s">
-        <v>457</v>
+      <c r="D40" s="36" t="s">
+        <v>456</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F40" s="37"/>
     </row>
-    <row r="41" spans="2:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>457</v>
+      <c r="D41" s="36" t="s">
+        <v>456</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F41" s="37"/>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
         <v>108</v>
       </c>
@@ -3567,7 +3595,7 @@
       <c r="D42" s="26"/>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
         <v>381</v>
       </c>
@@ -3577,7 +3605,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>109</v>
       </c>
@@ -3587,7 +3615,7 @@
       <c r="D44" s="26"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
         <v>110</v>
       </c>
@@ -3597,7 +3625,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
@@ -3607,7 +3635,7 @@
       <c r="D46" s="26"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
         <v>112</v>
       </c>
@@ -3617,7 +3645,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>113</v>
       </c>
@@ -3642,7 +3670,7 @@
       </c>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="39" t="s">
         <v>115</v>
       </c>
@@ -3660,14 +3688,14 @@
         <v>406</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
         <v>117</v>
       </c>
@@ -3685,10 +3713,10 @@
         <v>391</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F53" s="35"/>
     </row>
@@ -3700,14 +3728,14 @@
         <v>392</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F54" s="35"/>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
         <v>120</v>
       </c>
@@ -3725,14 +3753,14 @@
         <v>385</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F56" s="35"/>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
         <v>122</v>
       </c>
@@ -3750,14 +3778,14 @@
         <v>382</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F58" s="35"/>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
         <v>124</v>
       </c>
@@ -3775,14 +3803,14 @@
         <v>407</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E60" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>431</v>
-      </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="5" t="s">
         <v>126</v>
       </c>
@@ -3792,7 +3820,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="5" t="s">
         <v>127</v>
       </c>
@@ -3802,7 +3830,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="28"/>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="5" t="s">
         <v>128</v>
       </c>
@@ -3812,7 +3840,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="28"/>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="5" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3850,7 @@
       <c r="D64" s="26"/>
       <c r="E64" s="28"/>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="5" t="s">
         <v>130</v>
       </c>
@@ -3832,7 +3860,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="28"/>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="5" t="s">
         <v>131</v>
       </c>
@@ -3842,7 +3870,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="28"/>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
         <v>132</v>
       </c>
@@ -3852,7 +3880,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="28"/>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
         <v>133</v>
       </c>
@@ -3862,7 +3890,7 @@
       <c r="D68" s="26"/>
       <c r="E68" s="28"/>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
         <v>134</v>
       </c>
@@ -3872,7 +3900,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="28"/>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>135</v>
       </c>
@@ -3882,7 +3910,7 @@
       <c r="D70" s="26"/>
       <c r="E70" s="28"/>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>136</v>
       </c>
@@ -3892,7 +3920,7 @@
       <c r="D71" s="26"/>
       <c r="E71" s="28"/>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>137</v>
       </c>
@@ -3910,14 +3938,14 @@
         <v>408</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F73" s="35"/>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="5" t="s">
         <v>139</v>
       </c>
@@ -3927,7 +3955,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="28"/>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="5" t="s">
         <v>140</v>
       </c>
@@ -3937,7 +3965,7 @@
       <c r="D75" s="26"/>
       <c r="E75" s="28"/>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="5" t="s">
         <v>141</v>
       </c>
@@ -3947,7 +3975,7 @@
       <c r="D76" s="26"/>
       <c r="E76" s="28"/>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="5" t="s">
         <v>142</v>
       </c>
@@ -3957,7 +3985,7 @@
       <c r="D77" s="26"/>
       <c r="E77" s="28"/>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="5" t="s">
         <v>143</v>
       </c>
@@ -3967,7 +3995,7 @@
       <c r="D78" s="26"/>
       <c r="E78" s="28"/>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
         <v>144</v>
       </c>
@@ -3977,7 +4005,7 @@
       <c r="D79" s="26"/>
       <c r="E79" s="28"/>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="5" t="s">
         <v>145</v>
       </c>
@@ -3987,7 +4015,7 @@
       <c r="D80" s="26"/>
       <c r="E80" s="28"/>
     </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
         <v>146</v>
       </c>
@@ -3997,7 +4025,7 @@
       <c r="D81" s="26"/>
       <c r="E81" s="28"/>
     </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
         <v>147</v>
       </c>
@@ -4007,7 +4035,7 @@
       <c r="D82" s="26"/>
       <c r="E82" s="28"/>
     </row>
-    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="5" t="s">
         <v>148</v>
       </c>
@@ -4017,7 +4045,7 @@
       <c r="D83" s="26"/>
       <c r="E83" s="28"/>
     </row>
-    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="5" t="s">
         <v>149</v>
       </c>
@@ -4027,7 +4055,7 @@
       <c r="D84" s="26"/>
       <c r="E84" s="28"/>
     </row>
-    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="5" t="s">
         <v>150</v>
       </c>
@@ -4037,7 +4065,7 @@
       <c r="D85" s="26"/>
       <c r="E85" s="28"/>
     </row>
-    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" s="5" t="s">
         <v>151</v>
       </c>
@@ -4047,7 +4075,7 @@
       <c r="D86" s="26"/>
       <c r="E86" s="28"/>
     </row>
-    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="5" t="s">
         <v>152</v>
       </c>
@@ -4057,7 +4085,7 @@
       <c r="D87" s="26"/>
       <c r="E87" s="28"/>
     </row>
-    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="5" t="s">
         <v>153</v>
       </c>
@@ -4067,7 +4095,7 @@
       <c r="D88" s="26"/>
       <c r="E88" s="28"/>
     </row>
-    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="5" t="s">
         <v>154</v>
       </c>
@@ -4077,7 +4105,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="28"/>
     </row>
-    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
         <v>155</v>
       </c>
@@ -4087,7 +4115,7 @@
       <c r="D90" s="26"/>
       <c r="E90" s="28"/>
     </row>
-    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="5" t="s">
         <v>156</v>
       </c>
@@ -4097,7 +4125,7 @@
       <c r="D91" s="26"/>
       <c r="E91" s="28"/>
     </row>
-    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
         <v>157</v>
       </c>
@@ -4107,7 +4135,7 @@
       <c r="D92" s="26"/>
       <c r="E92" s="28"/>
     </row>
-    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="5" t="s">
         <v>158</v>
       </c>
@@ -4117,7 +4145,7 @@
       <c r="D93" s="26"/>
       <c r="E93" s="28"/>
     </row>
-    <row r="94" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
         <v>159</v>
       </c>
@@ -4127,7 +4155,7 @@
       <c r="D94" s="26"/>
       <c r="E94" s="28"/>
     </row>
-    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" s="5" t="s">
         <v>160</v>
       </c>
@@ -4137,7 +4165,7 @@
       <c r="D95" s="26"/>
       <c r="E95" s="28"/>
     </row>
-    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" s="5" t="s">
         <v>161</v>
       </c>
@@ -4147,7 +4175,7 @@
       <c r="D96" s="26"/>
       <c r="E96" s="28"/>
     </row>
-    <row r="97" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="5" t="s">
         <v>162</v>
       </c>
@@ -4157,7 +4185,7 @@
       <c r="D97" s="26"/>
       <c r="E97" s="28"/>
     </row>
-    <row r="98" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
         <v>163</v>
       </c>
@@ -4167,7 +4195,7 @@
       <c r="D98" s="26"/>
       <c r="E98" s="28"/>
     </row>
-    <row r="99" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
         <v>164</v>
       </c>
@@ -4177,7 +4205,7 @@
       <c r="D99" s="26"/>
       <c r="E99" s="28"/>
     </row>
-    <row r="100" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="5" t="s">
         <v>165</v>
       </c>
@@ -4187,7 +4215,7 @@
       <c r="D100" s="26"/>
       <c r="E100" s="28"/>
     </row>
-    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="5" t="s">
         <v>166</v>
       </c>
@@ -4197,7 +4225,7 @@
       <c r="D101" s="26"/>
       <c r="E101" s="28"/>
     </row>
-    <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="5" t="s">
         <v>167</v>
       </c>
@@ -4207,7 +4235,7 @@
       <c r="D102" s="26"/>
       <c r="E102" s="28"/>
     </row>
-    <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="5" t="s">
         <v>168</v>
       </c>
@@ -4217,7 +4245,7 @@
       <c r="D103" s="26"/>
       <c r="E103" s="28"/>
     </row>
-    <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="5" t="s">
         <v>169</v>
       </c>
@@ -4227,7 +4255,7 @@
       <c r="D104" s="26"/>
       <c r="E104" s="28"/>
     </row>
-    <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="5" t="s">
         <v>170</v>
       </c>
@@ -4237,7 +4265,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="28"/>
     </row>
-    <row r="106" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="5" t="s">
         <v>171</v>
       </c>
@@ -4247,7 +4275,7 @@
       <c r="D106" s="26"/>
       <c r="E106" s="28"/>
     </row>
-    <row r="107" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="5" t="s">
         <v>172</v>
       </c>
@@ -4257,7 +4285,7 @@
       <c r="D107" s="26"/>
       <c r="E107" s="28"/>
     </row>
-    <row r="108" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="5" t="s">
         <v>173</v>
       </c>
@@ -4267,7 +4295,7 @@
       <c r="D108" s="26"/>
       <c r="E108" s="28"/>
     </row>
-    <row r="109" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="5" t="s">
         <v>174</v>
       </c>
@@ -4277,7 +4305,7 @@
       <c r="D109" s="26"/>
       <c r="E109" s="28"/>
     </row>
-    <row r="110" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="5" t="s">
         <v>175</v>
       </c>
@@ -4287,7 +4315,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="28"/>
     </row>
-    <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="5" t="s">
         <v>176</v>
       </c>
@@ -4297,7 +4325,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="28"/>
     </row>
-    <row r="112" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="5" t="s">
         <v>177</v>
       </c>
@@ -4307,7 +4335,7 @@
       <c r="D112" s="26"/>
       <c r="E112" s="28"/>
     </row>
-    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="5" t="s">
         <v>178</v>
       </c>
@@ -4317,7 +4345,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="28"/>
     </row>
-    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="5" t="s">
         <v>179</v>
       </c>
@@ -4327,7 +4355,7 @@
       <c r="D114" s="26"/>
       <c r="E114" s="28"/>
     </row>
-    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="5" t="s">
         <v>180</v>
       </c>
@@ -4337,7 +4365,7 @@
       <c r="D115" s="26"/>
       <c r="E115" s="28"/>
     </row>
-    <row r="116" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="5" t="s">
         <v>181</v>
       </c>
@@ -4347,7 +4375,7 @@
       <c r="D116" s="26"/>
       <c r="E116" s="28"/>
     </row>
-    <row r="117" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="5" t="s">
         <v>182</v>
       </c>
@@ -4357,7 +4385,7 @@
       <c r="D117" s="26"/>
       <c r="E117" s="28"/>
     </row>
-    <row r="118" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="5" t="s">
         <v>183</v>
       </c>
@@ -4367,7 +4395,7 @@
       <c r="D118" s="26"/>
       <c r="E118" s="28"/>
     </row>
-    <row r="119" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="5" t="s">
         <v>184</v>
       </c>
@@ -4377,7 +4405,7 @@
       <c r="D119" s="26"/>
       <c r="E119" s="28"/>
     </row>
-    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="5" t="s">
         <v>185</v>
       </c>
@@ -4387,7 +4415,7 @@
       <c r="D120" s="26"/>
       <c r="E120" s="28"/>
     </row>
-    <row r="121" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" s="5" t="s">
         <v>186</v>
       </c>
@@ -4397,7 +4425,7 @@
       <c r="D121" s="26"/>
       <c r="E121" s="28"/>
     </row>
-    <row r="122" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" s="5" t="s">
         <v>187</v>
       </c>
@@ -4407,7 +4435,7 @@
       <c r="D122" s="26"/>
       <c r="E122" s="28"/>
     </row>
-    <row r="123" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="5" t="s">
         <v>188</v>
       </c>
@@ -4417,7 +4445,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="28"/>
     </row>
-    <row r="124" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="5" t="s">
         <v>189</v>
       </c>
@@ -4427,7 +4455,7 @@
       <c r="D124" s="26"/>
       <c r="E124" s="28"/>
     </row>
-    <row r="125" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="5" t="s">
         <v>190</v>
       </c>
@@ -4437,7 +4465,7 @@
       <c r="D125" s="26"/>
       <c r="E125" s="28"/>
     </row>
-    <row r="126" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" s="5" t="s">
         <v>191</v>
       </c>
@@ -4447,7 +4475,7 @@
       <c r="D126" s="26"/>
       <c r="E126" s="28"/>
     </row>
-    <row r="127" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" s="5" t="s">
         <v>192</v>
       </c>
@@ -4457,7 +4485,7 @@
       <c r="D127" s="26"/>
       <c r="E127" s="28"/>
     </row>
-    <row r="128" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" s="5" t="s">
         <v>193</v>
       </c>
@@ -4467,7 +4495,7 @@
       <c r="D128" s="26"/>
       <c r="E128" s="28"/>
     </row>
-    <row r="129" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="5" t="s">
         <v>194</v>
       </c>
@@ -4477,7 +4505,7 @@
       <c r="D129" s="26"/>
       <c r="E129" s="28"/>
     </row>
-    <row r="130" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="5" t="s">
         <v>195</v>
       </c>
@@ -4487,7 +4515,7 @@
       <c r="D130" s="26"/>
       <c r="E130" s="28"/>
     </row>
-    <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="5" t="s">
         <v>196</v>
       </c>
@@ -4497,7 +4525,7 @@
       <c r="D131" s="26"/>
       <c r="E131" s="28"/>
     </row>
-    <row r="132" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="5" t="s">
         <v>197</v>
       </c>
@@ -4507,7 +4535,7 @@
       <c r="D132" s="26"/>
       <c r="E132" s="28"/>
     </row>
-    <row r="133" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="5" t="s">
         <v>198</v>
       </c>
@@ -4517,7 +4545,7 @@
       <c r="D133" s="26"/>
       <c r="E133" s="28"/>
     </row>
-    <row r="134" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="5" t="s">
         <v>199</v>
       </c>
@@ -4527,7 +4555,7 @@
       <c r="D134" s="26"/>
       <c r="E134" s="28"/>
     </row>
-    <row r="135" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="5" t="s">
         <v>200</v>
       </c>
@@ -4537,7 +4565,7 @@
       <c r="D135" s="26"/>
       <c r="E135" s="28"/>
     </row>
-    <row r="136" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
@@ -4547,7 +4575,7 @@
       <c r="D136" s="26"/>
       <c r="E136" s="28"/>
     </row>
-    <row r="137" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="5" t="s">
         <v>202</v>
       </c>
@@ -4557,7 +4585,7 @@
       <c r="D137" s="26"/>
       <c r="E137" s="28"/>
     </row>
-    <row r="138" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="5" t="s">
         <v>203</v>
       </c>
@@ -4567,7 +4595,7 @@
       <c r="D138" s="26"/>
       <c r="E138" s="28"/>
     </row>
-    <row r="139" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="5" t="s">
         <v>204</v>
       </c>
@@ -4577,7 +4605,7 @@
       <c r="D139" s="26"/>
       <c r="E139" s="28"/>
     </row>
-    <row r="140" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="5" t="s">
         <v>205</v>
       </c>
@@ -4587,7 +4615,7 @@
       <c r="D140" s="26"/>
       <c r="E140" s="28"/>
     </row>
-    <row r="141" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="5" t="s">
         <v>206</v>
       </c>
@@ -4597,7 +4625,7 @@
       <c r="D141" s="26"/>
       <c r="E141" s="28"/>
     </row>
-    <row r="142" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="5" t="s">
         <v>207</v>
       </c>
@@ -4607,7 +4635,7 @@
       <c r="D142" s="26"/>
       <c r="E142" s="28"/>
     </row>
-    <row r="143" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" s="5" t="s">
         <v>208</v>
       </c>
@@ -4617,7 +4645,7 @@
       <c r="D143" s="26"/>
       <c r="E143" s="28"/>
     </row>
-    <row r="144" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="5" t="s">
         <v>209</v>
       </c>
@@ -4627,7 +4655,7 @@
       <c r="D144" s="26"/>
       <c r="E144" s="28"/>
     </row>
-    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="5" t="s">
         <v>210</v>
       </c>
@@ -4637,7 +4665,7 @@
       <c r="D145" s="26"/>
       <c r="E145" s="28"/>
     </row>
-    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="5" t="s">
         <v>211</v>
       </c>
@@ -4647,7 +4675,7 @@
       <c r="D146" s="26"/>
       <c r="E146" s="28"/>
     </row>
-    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="5" t="s">
         <v>212</v>
       </c>
@@ -4657,7 +4685,7 @@
       <c r="D147" s="26"/>
       <c r="E147" s="28"/>
     </row>
-    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="5" t="s">
         <v>213</v>
       </c>
@@ -4667,7 +4695,7 @@
       <c r="D148" s="26"/>
       <c r="E148" s="28"/>
     </row>
-    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="5" t="s">
         <v>214</v>
       </c>
@@ -4677,7 +4705,7 @@
       <c r="D149" s="26"/>
       <c r="E149" s="28"/>
     </row>
-    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="5" t="s">
         <v>215</v>
       </c>
@@ -4687,7 +4715,7 @@
       <c r="D150" s="26"/>
       <c r="E150" s="28"/>
     </row>
-    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="5" t="s">
         <v>216</v>
       </c>
@@ -4697,7 +4725,7 @@
       <c r="D151" s="26"/>
       <c r="E151" s="28"/>
     </row>
-    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="5" t="s">
         <v>217</v>
       </c>
@@ -4707,7 +4735,7 @@
       <c r="D152" s="26"/>
       <c r="E152" s="28"/>
     </row>
-    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="5" t="s">
         <v>218</v>
       </c>
@@ -4717,7 +4745,7 @@
       <c r="D153" s="26"/>
       <c r="E153" s="28"/>
     </row>
-    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="5" t="s">
         <v>219</v>
       </c>
@@ -4727,7 +4755,7 @@
       <c r="D154" s="26"/>
       <c r="E154" s="28"/>
     </row>
-    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="5" t="s">
         <v>220</v>
       </c>
@@ -4737,7 +4765,7 @@
       <c r="D155" s="26"/>
       <c r="E155" s="28"/>
     </row>
-    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="5" t="s">
         <v>221</v>
       </c>
@@ -4747,7 +4775,7 @@
       <c r="D156" s="26"/>
       <c r="E156" s="28"/>
     </row>
-    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="5" t="s">
         <v>222</v>
       </c>
@@ -4757,7 +4785,7 @@
       <c r="D157" s="26"/>
       <c r="E157" s="28"/>
     </row>
-    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="5" t="s">
         <v>223</v>
       </c>
@@ -4767,7 +4795,7 @@
       <c r="D158" s="26"/>
       <c r="E158" s="28"/>
     </row>
-    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" s="5" t="s">
         <v>224</v>
       </c>
@@ -4777,7 +4805,7 @@
       <c r="D159" s="26"/>
       <c r="E159" s="28"/>
     </row>
-    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="5" t="s">
         <v>225</v>
       </c>
@@ -4787,7 +4815,7 @@
       <c r="D160" s="26"/>
       <c r="E160" s="28"/>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="5" t="s">
         <v>226</v>
       </c>
@@ -4797,7 +4825,7 @@
       <c r="D161" s="26"/>
       <c r="E161" s="28"/>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="5" t="s">
         <v>227</v>
       </c>
@@ -4807,7 +4835,7 @@
       <c r="D162" s="26"/>
       <c r="E162" s="28"/>
     </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B163" s="5" t="s">
         <v>228</v>
       </c>
@@ -4817,7 +4845,7 @@
       <c r="D163" s="26"/>
       <c r="E163" s="28"/>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B164" s="5" t="s">
         <v>229</v>
       </c>
@@ -4827,7 +4855,7 @@
       <c r="D164" s="26"/>
       <c r="E164" s="28"/>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B165" s="5" t="s">
         <v>230</v>
       </c>
@@ -4837,7 +4865,7 @@
       <c r="D165" s="26"/>
       <c r="E165" s="28"/>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" s="5" t="s">
         <v>231</v>
       </c>
@@ -4847,7 +4875,7 @@
       <c r="D166" s="26"/>
       <c r="E166" s="28"/>
     </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B167" s="5" t="s">
         <v>232</v>
       </c>
@@ -4862,52 +4890,52 @@
         <v>233</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D168" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="E168" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="E168" s="20" t="s">
-        <v>444</v>
-      </c>
       <c r="F168" s="35"/>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B169" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D169" s="26"/>
       <c r="E169" s="28"/>
     </row>
-    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" s="5" t="s">
         <v>235</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="28"/>
     </row>
-    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B171" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D171" s="26"/>
       <c r="E171" s="28"/>
     </row>
-    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B172" s="5" t="s">
         <v>237</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="28"/>
@@ -4917,13 +4945,13 @@
         <v>238</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F173" s="35"/>
     </row>
@@ -4932,13 +4960,13 @@
         <v>239</v>
       </c>
       <c r="C174" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="D174" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="D174" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="E174" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F174" s="35"/>
     </row>
@@ -4947,13 +4975,13 @@
         <v>240</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F175" s="35"/>
     </row>
@@ -4962,7 +4990,7 @@
         <v>241</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>0</v>
@@ -4977,7 +5005,7 @@
         <v>242</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>0</v>
@@ -4987,12 +5015,12 @@
       </c>
       <c r="F177" s="35"/>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" s="5" t="s">
         <v>243</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="28"/>
@@ -5002,13 +5030,13 @@
         <v>244</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F179" s="35"/>
     </row>
@@ -5017,13 +5045,13 @@
         <v>245</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F180" s="35"/>
     </row>
@@ -5032,13 +5060,13 @@
         <v>246</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D181" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E181" s="34" t="s">
         <v>477</v>
-      </c>
-      <c r="E181" s="34" t="s">
-        <v>478</v>
       </c>
       <c r="F181" s="35"/>
     </row>
@@ -5047,13 +5075,13 @@
         <v>247</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F182" s="35"/>
     </row>
@@ -5062,17 +5090,17 @@
         <v>248</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F183" s="35"/>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="5" t="s">
         <v>249</v>
       </c>
@@ -5082,7 +5110,7 @@
       <c r="D184" s="26"/>
       <c r="E184" s="28"/>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="5" t="s">
         <v>250</v>
       </c>
@@ -5092,7 +5120,7 @@
       <c r="D185" s="26"/>
       <c r="E185" s="28"/>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" s="5" t="s">
         <v>251</v>
       </c>
@@ -5102,7 +5130,7 @@
       <c r="D186" s="26"/>
       <c r="E186" s="28"/>
     </row>
-    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="5" t="s">
         <v>252</v>
       </c>
@@ -5112,7 +5140,7 @@
       <c r="D187" s="26"/>
       <c r="E187" s="28"/>
     </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="5" t="s">
         <v>253</v>
       </c>
@@ -5122,7 +5150,7 @@
       <c r="D188" s="26"/>
       <c r="E188" s="28"/>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" s="5" t="s">
         <v>254</v>
       </c>
@@ -5132,7 +5160,7 @@
       <c r="D189" s="26"/>
       <c r="E189" s="28"/>
     </row>
-    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="5" t="s">
         <v>255</v>
       </c>
@@ -5142,7 +5170,7 @@
       <c r="D190" s="26"/>
       <c r="E190" s="28"/>
     </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="5" t="s">
         <v>256</v>
       </c>
@@ -5152,7 +5180,7 @@
       <c r="D191" s="26"/>
       <c r="E191" s="28"/>
     </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="5" t="s">
         <v>257</v>
       </c>
@@ -5162,7 +5190,7 @@
       <c r="D192" s="26"/>
       <c r="E192" s="28"/>
     </row>
-    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B193" s="5" t="s">
         <v>258</v>
       </c>
@@ -5172,7 +5200,7 @@
       <c r="D193" s="26"/>
       <c r="E193" s="28"/>
     </row>
-    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B194" s="5" t="s">
         <v>259</v>
       </c>
@@ -5182,7 +5210,7 @@
       <c r="D194" s="26"/>
       <c r="E194" s="28"/>
     </row>
-    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" s="5" t="s">
         <v>260</v>
       </c>
@@ -5192,7 +5220,7 @@
       <c r="D195" s="26"/>
       <c r="E195" s="28"/>
     </row>
-    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" s="5" t="s">
         <v>261</v>
       </c>
@@ -5202,7 +5230,7 @@
       <c r="D196" s="26"/>
       <c r="E196" s="28"/>
     </row>
-    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" s="5" t="s">
         <v>262</v>
       </c>
@@ -5212,7 +5240,7 @@
       <c r="D197" s="26"/>
       <c r="E197" s="28"/>
     </row>
-    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" s="5" t="s">
         <v>263</v>
       </c>
@@ -5222,7 +5250,7 @@
       <c r="D198" s="26"/>
       <c r="E198" s="28"/>
     </row>
-    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" s="5" t="s">
         <v>264</v>
       </c>
@@ -5232,7 +5260,7 @@
       <c r="D199" s="26"/>
       <c r="E199" s="28"/>
     </row>
-    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" s="5" t="s">
         <v>265</v>
       </c>
@@ -5242,7 +5270,7 @@
       <c r="D200" s="26"/>
       <c r="E200" s="28"/>
     </row>
-    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" s="5" t="s">
         <v>266</v>
       </c>
@@ -5252,7 +5280,7 @@
       <c r="D201" s="26"/>
       <c r="E201" s="28"/>
     </row>
-    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" s="5" t="s">
         <v>267</v>
       </c>
@@ -5262,7 +5290,7 @@
       <c r="D202" s="26"/>
       <c r="E202" s="28"/>
     </row>
-    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" s="5" t="s">
         <v>268</v>
       </c>
@@ -5272,7 +5300,7 @@
       <c r="D203" s="26"/>
       <c r="E203" s="28"/>
     </row>
-    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" s="5" t="s">
         <v>269</v>
       </c>
@@ -5282,7 +5310,7 @@
       <c r="D204" s="26"/>
       <c r="E204" s="28"/>
     </row>
-    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" s="5" t="s">
         <v>270</v>
       </c>
@@ -5292,7 +5320,7 @@
       <c r="D205" s="26"/>
       <c r="E205" s="28"/>
     </row>
-    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" s="5" t="s">
         <v>271</v>
       </c>
@@ -5302,7 +5330,7 @@
       <c r="D206" s="26"/>
       <c r="E206" s="28"/>
     </row>
-    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" s="5" t="s">
         <v>272</v>
       </c>
@@ -5312,7 +5340,7 @@
       <c r="D207" s="26"/>
       <c r="E207" s="28"/>
     </row>
-    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" s="5" t="s">
         <v>273</v>
       </c>
@@ -5322,7 +5350,7 @@
       <c r="D208" s="26"/>
       <c r="E208" s="28"/>
     </row>
-    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B209" s="5" t="s">
         <v>274</v>
       </c>
@@ -5332,7 +5360,7 @@
       <c r="D209" s="26"/>
       <c r="E209" s="28"/>
     </row>
-    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B210" s="5" t="s">
         <v>275</v>
       </c>
@@ -5342,7 +5370,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="28"/>
     </row>
-    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B211" s="5" t="s">
         <v>276</v>
       </c>
@@ -5352,7 +5380,7 @@
       <c r="D211" s="26"/>
       <c r="E211" s="28"/>
     </row>
-    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B212" s="5" t="s">
         <v>277</v>
       </c>
@@ -5362,7 +5390,7 @@
       <c r="D212" s="26"/>
       <c r="E212" s="28"/>
     </row>
-    <row r="213" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="5" t="s">
         <v>278</v>
       </c>
@@ -5372,7 +5400,7 @@
       <c r="D213" s="26"/>
       <c r="E213" s="28"/>
     </row>
-    <row r="214" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="5" t="s">
         <v>279</v>
       </c>
@@ -5382,7 +5410,7 @@
       <c r="D214" s="26"/>
       <c r="E214" s="28"/>
     </row>
-    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B215" s="5" t="s">
         <v>280</v>
       </c>
@@ -5392,7 +5420,7 @@
       <c r="D215" s="26"/>
       <c r="E215" s="28"/>
     </row>
-    <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B216" s="5" t="s">
         <v>281</v>
       </c>
@@ -5402,7 +5430,7 @@
       <c r="D216" s="26"/>
       <c r="E216" s="28"/>
     </row>
-    <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B217" s="5" t="s">
         <v>282</v>
       </c>
@@ -5412,7 +5440,7 @@
       <c r="D217" s="26"/>
       <c r="E217" s="28"/>
     </row>
-    <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B218" s="5" t="s">
         <v>283</v>
       </c>
@@ -5422,7 +5450,7 @@
       <c r="D218" s="26"/>
       <c r="E218" s="28"/>
     </row>
-    <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B219" s="5" t="s">
         <v>284</v>
       </c>
@@ -5432,7 +5460,7 @@
       <c r="D219" s="26"/>
       <c r="E219" s="28"/>
     </row>
-    <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B220" s="5" t="s">
         <v>285</v>
       </c>
@@ -5442,7 +5470,7 @@
       <c r="D220" s="26"/>
       <c r="E220" s="28"/>
     </row>
-    <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B221" s="5" t="s">
         <v>286</v>
       </c>
@@ -5452,7 +5480,7 @@
       <c r="D221" s="26"/>
       <c r="E221" s="28"/>
     </row>
-    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B222" s="5" t="s">
         <v>287</v>
       </c>
@@ -5462,7 +5490,7 @@
       <c r="D222" s="26"/>
       <c r="E222" s="28"/>
     </row>
-    <row r="223" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B223" s="5" t="s">
         <v>288</v>
       </c>
@@ -5472,7 +5500,7 @@
       <c r="D223" s="26"/>
       <c r="E223" s="28"/>
     </row>
-    <row r="224" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B224" s="5" t="s">
         <v>289</v>
       </c>
@@ -5482,7 +5510,7 @@
       <c r="D224" s="26"/>
       <c r="E224" s="28"/>
     </row>
-    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B225" s="5" t="s">
         <v>290</v>
       </c>
@@ -5492,7 +5520,7 @@
       <c r="D225" s="26"/>
       <c r="E225" s="28"/>
     </row>
-    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B226" s="5" t="s">
         <v>291</v>
       </c>
@@ -5502,7 +5530,7 @@
       <c r="D226" s="26"/>
       <c r="E226" s="28"/>
     </row>
-    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B227" s="5" t="s">
         <v>292</v>
       </c>
@@ -5512,7 +5540,7 @@
       <c r="D227" s="26"/>
       <c r="E227" s="28"/>
     </row>
-    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B228" s="5" t="s">
         <v>293</v>
       </c>
@@ -5537,7 +5565,7 @@
       </c>
       <c r="F229" s="35"/>
     </row>
-    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B230" s="5" t="s">
         <v>295</v>
       </c>
@@ -5547,7 +5575,7 @@
       <c r="D230" s="26"/>
       <c r="E230" s="28"/>
     </row>
-    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B231" s="5" t="s">
         <v>296</v>
       </c>
@@ -5557,7 +5585,7 @@
       <c r="D231" s="26"/>
       <c r="E231" s="28"/>
     </row>
-    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B232" s="5" t="s">
         <v>297</v>
       </c>
@@ -5567,7 +5595,7 @@
       <c r="D232" s="26"/>
       <c r="E232" s="28"/>
     </row>
-    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B233" s="5" t="s">
         <v>298</v>
       </c>
@@ -5577,7 +5605,7 @@
       <c r="D233" s="26"/>
       <c r="E233" s="28"/>
     </row>
-    <row r="234" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B234" s="5" t="s">
         <v>299</v>
       </c>
@@ -5595,29 +5623,29 @@
         <v>409</v>
       </c>
       <c r="D235" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E235" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F235" s="35"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B236" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E236" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F236" s="35"/>
     </row>
-    <row r="237" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B237" s="5" t="s">
         <v>301</v>
       </c>
@@ -5627,7 +5655,7 @@
       <c r="D237" s="26"/>
       <c r="E237" s="28"/>
     </row>
-    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B238" s="5" t="s">
         <v>302</v>
       </c>
@@ -5637,7 +5665,7 @@
       <c r="D238" s="26"/>
       <c r="E238" s="28"/>
     </row>
-    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B239" s="5" t="s">
         <v>303</v>
       </c>
@@ -5647,7 +5675,7 @@
       <c r="D239" s="26"/>
       <c r="E239" s="28"/>
     </row>
-    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B240" s="5" t="s">
         <v>304</v>
       </c>
@@ -5657,7 +5685,7 @@
       <c r="D240" s="26"/>
       <c r="E240" s="28"/>
     </row>
-    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" s="5" t="s">
         <v>305</v>
       </c>
@@ -5667,7 +5695,7 @@
       <c r="D241" s="26"/>
       <c r="E241" s="28"/>
     </row>
-    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" s="5" t="s">
         <v>306</v>
       </c>
@@ -5677,7 +5705,7 @@
       <c r="D242" s="26"/>
       <c r="E242" s="28"/>
     </row>
-    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="5" t="s">
         <v>307</v>
       </c>
@@ -5687,7 +5715,7 @@
       <c r="D243" s="26"/>
       <c r="E243" s="28"/>
     </row>
-    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" s="5" t="s">
         <v>308</v>
       </c>
@@ -5697,7 +5725,7 @@
       <c r="D244" s="26"/>
       <c r="E244" s="28"/>
     </row>
-    <row r="245" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" s="5" t="s">
         <v>309</v>
       </c>
@@ -5707,7 +5735,7 @@
       <c r="D245" s="26"/>
       <c r="E245" s="28"/>
     </row>
-    <row r="246" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" s="5" t="s">
         <v>310</v>
       </c>
@@ -5717,7 +5745,7 @@
       <c r="D246" s="26"/>
       <c r="E246" s="28"/>
     </row>
-    <row r="247" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" s="5" t="s">
         <v>311</v>
       </c>
@@ -5727,7 +5755,7 @@
       <c r="D247" s="26"/>
       <c r="E247" s="28"/>
     </row>
-    <row r="248" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" s="5" t="s">
         <v>312</v>
       </c>
@@ -5737,7 +5765,7 @@
       <c r="D248" s="26"/>
       <c r="E248" s="28"/>
     </row>
-    <row r="249" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" s="5" t="s">
         <v>313</v>
       </c>
@@ -5747,7 +5775,7 @@
       <c r="D249" s="26"/>
       <c r="E249" s="28"/>
     </row>
-    <row r="250" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" s="5" t="s">
         <v>314</v>
       </c>
@@ -5757,7 +5785,7 @@
       <c r="D250" s="26"/>
       <c r="E250" s="28"/>
     </row>
-    <row r="251" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" s="5" t="s">
         <v>315</v>
       </c>
@@ -5767,7 +5795,7 @@
       <c r="D251" s="26"/>
       <c r="E251" s="28"/>
     </row>
-    <row r="252" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" s="5" t="s">
         <v>316</v>
       </c>
@@ -5777,7 +5805,7 @@
       <c r="D252" s="26"/>
       <c r="E252" s="28"/>
     </row>
-    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" s="5" t="s">
         <v>317</v>
       </c>
@@ -5787,7 +5815,7 @@
       <c r="D253" s="26"/>
       <c r="E253" s="28"/>
     </row>
-    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" s="5" t="s">
         <v>318</v>
       </c>
@@ -5797,7 +5825,7 @@
       <c r="D254" s="26"/>
       <c r="E254" s="28"/>
     </row>
-    <row r="255" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" s="5" t="s">
         <v>319</v>
       </c>
@@ -5807,7 +5835,7 @@
       <c r="D255" s="26"/>
       <c r="E255" s="28"/>
     </row>
-    <row r="256" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" s="5" t="s">
         <v>320</v>
       </c>
@@ -5817,7 +5845,7 @@
       <c r="D256" s="26"/>
       <c r="E256" s="28"/>
     </row>
-    <row r="257" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B257" s="5" t="s">
         <v>321</v>
       </c>
@@ -5827,7 +5855,7 @@
       <c r="D257" s="26"/>
       <c r="E257" s="28"/>
     </row>
-    <row r="258" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" s="5" t="s">
         <v>322</v>
       </c>
@@ -5837,7 +5865,7 @@
       <c r="D258" s="26"/>
       <c r="E258" s="28"/>
     </row>
-    <row r="259" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="5" t="s">
         <v>323</v>
       </c>
@@ -5847,7 +5875,7 @@
       <c r="D259" s="26"/>
       <c r="E259" s="28"/>
     </row>
-    <row r="260" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" s="5" t="s">
         <v>324</v>
       </c>
@@ -5857,7 +5885,7 @@
       <c r="D260" s="26"/>
       <c r="E260" s="28"/>
     </row>
-    <row r="261" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" s="5" t="s">
         <v>325</v>
       </c>
@@ -5867,7 +5895,7 @@
       <c r="D261" s="26"/>
       <c r="E261" s="28"/>
     </row>
-    <row r="262" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" s="5" t="s">
         <v>326</v>
       </c>
@@ -5877,7 +5905,7 @@
       <c r="D262" s="26"/>
       <c r="E262" s="28"/>
     </row>
-    <row r="263" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B263" s="5" t="s">
         <v>327</v>
       </c>
@@ -5887,7 +5915,7 @@
       <c r="D263" s="26"/>
       <c r="E263" s="28"/>
     </row>
-    <row r="264" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" s="5" t="s">
         <v>328</v>
       </c>
@@ -5897,7 +5925,7 @@
       <c r="D264" s="26"/>
       <c r="E264" s="28"/>
     </row>
-    <row r="265" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" s="5" t="s">
         <v>329</v>
       </c>
@@ -5907,7 +5935,7 @@
       <c r="D265" s="26"/>
       <c r="E265" s="28"/>
     </row>
-    <row r="266" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" s="5" t="s">
         <v>330</v>
       </c>
@@ -5917,7 +5945,7 @@
       <c r="D266" s="26"/>
       <c r="E266" s="28"/>
     </row>
-    <row r="267" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="5" t="s">
         <v>331</v>
       </c>
@@ -5927,7 +5955,7 @@
       <c r="D267" s="26"/>
       <c r="E267" s="28"/>
     </row>
-    <row r="268" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" s="5" t="s">
         <v>332</v>
       </c>
@@ -5937,7 +5965,7 @@
       <c r="D268" s="26"/>
       <c r="E268" s="28"/>
     </row>
-    <row r="269" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B269" s="5" t="s">
         <v>333</v>
       </c>
@@ -5947,7 +5975,7 @@
       <c r="D269" s="26"/>
       <c r="E269" s="28"/>
     </row>
-    <row r="270" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B270" s="5" t="s">
         <v>334</v>
       </c>
@@ -5957,7 +5985,7 @@
       <c r="D270" s="26"/>
       <c r="E270" s="28"/>
     </row>
-    <row r="271" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" s="5" t="s">
         <v>335</v>
       </c>
@@ -5967,7 +5995,7 @@
       <c r="D271" s="26"/>
       <c r="E271" s="28"/>
     </row>
-    <row r="272" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" s="5" t="s">
         <v>336</v>
       </c>
@@ -5977,7 +6005,7 @@
       <c r="D272" s="26"/>
       <c r="E272" s="28"/>
     </row>
-    <row r="273" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" s="5" t="s">
         <v>337</v>
       </c>
@@ -5987,7 +6015,7 @@
       <c r="D273" s="26"/>
       <c r="E273" s="28"/>
     </row>
-    <row r="274" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" s="5" t="s">
         <v>338</v>
       </c>
@@ -5997,7 +6025,7 @@
       <c r="D274" s="26"/>
       <c r="E274" s="28"/>
     </row>
-    <row r="275" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" s="5" t="s">
         <v>339</v>
       </c>
@@ -6007,7 +6035,7 @@
       <c r="D275" s="26"/>
       <c r="E275" s="28"/>
     </row>
-    <row r="276" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" s="5" t="s">
         <v>340</v>
       </c>
@@ -6017,7 +6045,7 @@
       <c r="D276" s="26"/>
       <c r="E276" s="28"/>
     </row>
-    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" s="5" t="s">
         <v>341</v>
       </c>
@@ -6027,7 +6055,7 @@
       <c r="D277" s="26"/>
       <c r="E277" s="28"/>
     </row>
-    <row r="278" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" s="5" t="s">
         <v>342</v>
       </c>
@@ -6037,7 +6065,7 @@
       <c r="D278" s="26"/>
       <c r="E278" s="28"/>
     </row>
-    <row r="279" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" s="5" t="s">
         <v>343</v>
       </c>
@@ -6047,7 +6075,7 @@
       <c r="D279" s="26"/>
       <c r="E279" s="28"/>
     </row>
-    <row r="280" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" s="5" t="s">
         <v>344</v>
       </c>
@@ -6057,7 +6085,7 @@
       <c r="D280" s="26"/>
       <c r="E280" s="28"/>
     </row>
-    <row r="281" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" s="5" t="s">
         <v>345</v>
       </c>
@@ -6067,7 +6095,7 @@
       <c r="D281" s="26"/>
       <c r="E281" s="28"/>
     </row>
-    <row r="282" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" s="5" t="s">
         <v>346</v>
       </c>
@@ -6077,7 +6105,7 @@
       <c r="D282" s="26"/>
       <c r="E282" s="28"/>
     </row>
-    <row r="283" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" s="5" t="s">
         <v>347</v>
       </c>
@@ -6087,7 +6115,7 @@
       <c r="D283" s="26"/>
       <c r="E283" s="28"/>
     </row>
-    <row r="284" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" s="5" t="s">
         <v>348</v>
       </c>
@@ -6097,7 +6125,7 @@
       <c r="D284" s="26"/>
       <c r="E284" s="28"/>
     </row>
-    <row r="285" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B285" s="5" t="s">
         <v>349</v>
       </c>
@@ -6107,7 +6135,7 @@
       <c r="D285" s="26"/>
       <c r="E285" s="28"/>
     </row>
-    <row r="286" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B286" s="5" t="s">
         <v>350</v>
       </c>
@@ -6117,7 +6145,7 @@
       <c r="D286" s="26"/>
       <c r="E286" s="28"/>
     </row>
-    <row r="287" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B287" s="5" t="s">
         <v>351</v>
       </c>
@@ -6127,7 +6155,7 @@
       <c r="D287" s="26"/>
       <c r="E287" s="28"/>
     </row>
-    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" s="5" t="s">
         <v>352</v>
       </c>
@@ -6137,7 +6165,7 @@
       <c r="D288" s="26"/>
       <c r="E288" s="28"/>
     </row>
-    <row r="289" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B289" s="5" t="s">
         <v>353</v>
       </c>
@@ -6147,7 +6175,7 @@
       <c r="D289" s="26"/>
       <c r="E289" s="28"/>
     </row>
-    <row r="290" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B290" s="5" t="s">
         <v>354</v>
       </c>
@@ -6157,7 +6185,7 @@
       <c r="D290" s="26"/>
       <c r="E290" s="28"/>
     </row>
-    <row r="291" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B291" s="5" t="s">
         <v>355</v>
       </c>
@@ -6167,7 +6195,7 @@
       <c r="D291" s="26"/>
       <c r="E291" s="28"/>
     </row>
-    <row r="292" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B292" s="5" t="s">
         <v>356</v>
       </c>
@@ -6177,7 +6205,7 @@
       <c r="D292" s="26"/>
       <c r="E292" s="28"/>
     </row>
-    <row r="293" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B293" s="5" t="s">
         <v>357</v>
       </c>
@@ -6187,7 +6215,7 @@
       <c r="D293" s="26"/>
       <c r="E293" s="28"/>
     </row>
-    <row r="294" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B294" s="5" t="s">
         <v>358</v>
       </c>
@@ -6197,7 +6225,7 @@
       <c r="D294" s="26"/>
       <c r="E294" s="28"/>
     </row>
-    <row r="295" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B295" s="5" t="s">
         <v>359</v>
       </c>
@@ -6207,7 +6235,7 @@
       <c r="D295" s="26"/>
       <c r="E295" s="28"/>
     </row>
-    <row r="296" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B296" s="5" t="s">
         <v>360</v>
       </c>
@@ -6217,7 +6245,7 @@
       <c r="D296" s="26"/>
       <c r="E296" s="28"/>
     </row>
-    <row r="297" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B297" s="5" t="s">
         <v>361</v>
       </c>
@@ -6227,7 +6255,7 @@
       <c r="D297" s="26"/>
       <c r="E297" s="28"/>
     </row>
-    <row r="298" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B298" s="5" t="s">
         <v>362</v>
       </c>
@@ -6237,7 +6265,7 @@
       <c r="D298" s="26"/>
       <c r="E298" s="28"/>
     </row>
-    <row r="299" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B299" s="5" t="s">
         <v>363</v>
       </c>
@@ -6247,7 +6275,7 @@
       <c r="D299" s="26"/>
       <c r="E299" s="28"/>
     </row>
-    <row r="300" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B300" s="5" t="s">
         <v>364</v>
       </c>
@@ -6257,7 +6285,7 @@
       <c r="D300" s="26"/>
       <c r="E300" s="28"/>
     </row>
-    <row r="301" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B301" s="5" t="s">
         <v>365</v>
       </c>
@@ -6267,7 +6295,7 @@
       <c r="D301" s="26"/>
       <c r="E301" s="28"/>
     </row>
-    <row r="302" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B302" s="5" t="s">
         <v>366</v>
       </c>
@@ -6277,7 +6305,7 @@
       <c r="D302" s="26"/>
       <c r="E302" s="28"/>
     </row>
-    <row r="303" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B303" s="5" t="s">
         <v>367</v>
       </c>
@@ -6287,7 +6315,7 @@
       <c r="D303" s="26"/>
       <c r="E303" s="28"/>
     </row>
-    <row r="304" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B304" s="5" t="s">
         <v>368</v>
       </c>
@@ -6297,7 +6325,7 @@
       <c r="D304" s="26"/>
       <c r="E304" s="28"/>
     </row>
-    <row r="305" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" s="5" t="s">
         <v>369</v>
       </c>
@@ -6307,7 +6335,7 @@
       <c r="D305" s="26"/>
       <c r="E305" s="28"/>
     </row>
-    <row r="306" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B306" s="5" t="s">
         <v>370</v>
       </c>
@@ -6317,7 +6345,7 @@
       <c r="D306" s="26"/>
       <c r="E306" s="28"/>
     </row>
-    <row r="307" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B307" s="5" t="s">
         <v>371</v>
       </c>
@@ -6327,7 +6355,7 @@
       <c r="D307" s="26"/>
       <c r="E307" s="28"/>
     </row>
-    <row r="308" spans="2:5" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
         <v>372</v>
       </c>
@@ -6338,28 +6366,23 @@
       <c r="E308" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E308">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:E308"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D51:E59" numberStoredAsText="1"/>
+    <ignoredError sqref="D51:E59 E41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6372,7 +6395,7 @@
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32"/>
       <c r="B1" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6380,19 +6403,19 @@
         <v>373</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>374</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -6403,7 +6426,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
@@ -6414,7 +6437,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="24.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
@@ -6422,13 +6445,13 @@
         <v>76</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G5" s="35"/>
     </row>
@@ -6437,16 +6460,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G6" s="35"/>
     </row>
@@ -6455,20 +6478,20 @@
         <v>78</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -6479,7 +6502,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -6490,7 +6513,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
@@ -6501,7 +6524,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
@@ -6512,7 +6535,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
@@ -6523,7 +6546,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -6542,13 +6565,13 @@
         <v>71</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>410</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>411</v>
       </c>
       <c r="G14" s="35"/>
     </row>
@@ -6560,13 +6583,13 @@
         <v>72</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="F15" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G15" s="35"/>
     </row>
@@ -6578,17 +6601,17 @@
         <v>73</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>128</v>
       </c>
@@ -6599,7 +6622,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>129</v>
       </c>
@@ -6610,7 +6633,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
@@ -6627,16 +6650,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -6645,16 +6668,16 @@
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -6663,16 +6686,16 @@
         <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="F22" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -6681,16 +6704,16 @@
         <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -6699,16 +6722,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G24" s="38"/>
     </row>
@@ -6717,16 +6740,16 @@
         <v>15</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -6735,16 +6758,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -6753,20 +6776,20 @@
         <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
@@ -6777,7 +6800,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
@@ -6788,7 +6811,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
@@ -6799,7 +6822,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
@@ -6810,7 +6833,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
@@ -6821,7 +6844,7 @@
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
@@ -6832,7 +6855,7 @@
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>24</v>
       </c>
@@ -6843,7 +6866,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
@@ -6854,7 +6877,7 @@
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>26</v>
       </c>
@@ -6865,7 +6888,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>27</v>
       </c>
@@ -6876,7 +6899,7 @@
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>28</v>
       </c>
@@ -6887,7 +6910,7 @@
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
         <v>29</v>
       </c>
@@ -6898,7 +6921,7 @@
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>30</v>
       </c>
@@ -6909,7 +6932,7 @@
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
@@ -6920,7 +6943,7 @@
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
@@ -6931,7 +6954,7 @@
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
@@ -6942,7 +6965,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>34</v>
       </c>
@@ -6953,7 +6976,7 @@
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
         <v>35</v>
       </c>
@@ -6964,7 +6987,7 @@
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>36</v>
       </c>
@@ -6975,7 +6998,7 @@
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
         <v>37</v>
       </c>
@@ -6986,7 +7009,7 @@
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>38</v>
       </c>
@@ -6997,7 +7020,7 @@
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="5" t="s">
         <v>39</v>
       </c>
@@ -7008,7 +7031,7 @@
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="5" t="s">
         <v>249</v>
       </c>
@@ -7024,20 +7047,20 @@
         <v>217</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>444</v>
-      </c>
       <c r="G51" s="35"/>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
         <v>218</v>
       </c>
@@ -7048,7 +7071,7 @@
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
         <v>219</v>
       </c>
@@ -7059,7 +7082,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
         <v>220</v>
       </c>
@@ -7070,7 +7093,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
         <v>221</v>
       </c>
@@ -7081,7 +7104,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
         <v>222</v>
       </c>
@@ -7092,7 +7115,7 @@
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
         <v>223</v>
       </c>
@@ -7103,7 +7126,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="5" t="s">
         <v>224</v>
       </c>
@@ -7114,7 +7137,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
         <v>225</v>
       </c>
@@ -7125,7 +7148,7 @@
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
         <v>226</v>
       </c>
@@ -7136,7 +7159,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="5" t="s">
         <v>227</v>
       </c>
@@ -7147,7 +7170,7 @@
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" s="5" t="s">
         <v>228</v>
       </c>
@@ -7158,7 +7181,7 @@
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B63" s="5" t="s">
         <v>229</v>
       </c>
@@ -7169,7 +7192,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" s="5" t="s">
         <v>230</v>
       </c>
@@ -7180,7 +7203,7 @@
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="5" t="s">
         <v>231</v>
       </c>
@@ -7191,7 +7214,7 @@
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="5" t="s">
         <v>232</v>
       </c>
@@ -7202,7 +7225,7 @@
       <c r="E66" s="27"/>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
         <v>254</v>
       </c>
@@ -7213,7 +7236,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
         <v>276</v>
       </c>
@@ -7224,7 +7247,7 @@
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
         <v>277</v>
       </c>
@@ -7235,7 +7258,7 @@
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>278</v>
       </c>
@@ -7246,7 +7269,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>279</v>
       </c>
@@ -7257,7 +7280,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>280</v>
       </c>
@@ -7268,7 +7291,7 @@
       <c r="E72" s="27"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
         <v>281</v>
       </c>
@@ -7279,7 +7302,7 @@
       <c r="E73" s="27"/>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="5" t="s">
         <v>282</v>
       </c>
@@ -7290,7 +7313,7 @@
       <c r="E74" s="27"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="5" t="s">
         <v>293</v>
       </c>
@@ -7319,7 +7342,7 @@
       </c>
       <c r="G76" s="35"/>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="5" t="s">
         <v>295</v>
       </c>
@@ -7330,7 +7353,7 @@
       <c r="E77" s="27"/>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="5" t="s">
         <v>296</v>
       </c>
@@ -7341,7 +7364,7 @@
       <c r="E78" s="27"/>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
         <v>297</v>
       </c>
@@ -7360,17 +7383,17 @@
         <v>393</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G80" s="35"/>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
         <v>40</v>
       </c>
@@ -7381,7 +7404,7 @@
       <c r="E81" s="27"/>
       <c r="F81" s="28"/>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
         <v>41</v>
       </c>
@@ -7392,7 +7415,7 @@
       <c r="E82" s="27"/>
       <c r="F82" s="28"/>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="5" t="s">
         <v>42</v>
       </c>
@@ -7403,7 +7426,7 @@
       <c r="E83" s="27"/>
       <c r="F83" s="28"/>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="5" t="s">
         <v>43</v>
       </c>
@@ -7414,7 +7437,7 @@
       <c r="E84" s="27"/>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="5" t="s">
         <v>44</v>
       </c>
@@ -7425,7 +7448,7 @@
       <c r="E85" s="27"/>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="5" t="s">
         <v>45</v>
       </c>
@@ -7436,7 +7459,7 @@
       <c r="E86" s="27"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="5" t="s">
         <v>46</v>
       </c>
@@ -7447,7 +7470,7 @@
       <c r="E87" s="27"/>
       <c r="F87" s="28"/>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="5" t="s">
         <v>47</v>
       </c>
@@ -7458,7 +7481,7 @@
       <c r="E88" s="27"/>
       <c r="F88" s="28"/>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="5" t="s">
         <v>48</v>
       </c>
@@ -7469,7 +7492,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -7480,7 +7503,7 @@
       <c r="E90" s="27"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="5" t="s">
         <v>50</v>
       </c>
@@ -7491,7 +7514,7 @@
       <c r="E91" s="27"/>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
         <v>51</v>
       </c>
@@ -7502,7 +7525,7 @@
       <c r="E92" s="27"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="5" t="s">
         <v>52</v>
       </c>
@@ -7513,7 +7536,7 @@
       <c r="E93" s="27"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
         <v>53</v>
       </c>
@@ -7524,7 +7547,7 @@
       <c r="E94" s="27"/>
       <c r="F94" s="28"/>
     </row>
-    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="5" t="s">
         <v>54</v>
       </c>
@@ -7535,7 +7558,7 @@
       <c r="E95" s="27"/>
       <c r="F95" s="28"/>
     </row>
-    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="5" t="s">
         <v>55</v>
       </c>
@@ -7546,7 +7569,7 @@
       <c r="E96" s="27"/>
       <c r="F96" s="28"/>
     </row>
-    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="5" t="s">
         <v>56</v>
       </c>
@@ -7557,7 +7580,7 @@
       <c r="E97" s="27"/>
       <c r="F97" s="28"/>
     </row>
-    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
         <v>57</v>
       </c>
@@ -7568,7 +7591,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="28"/>
     </row>
-    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
         <v>58</v>
       </c>
@@ -7579,7 +7602,7 @@
       <c r="E99" s="27"/>
       <c r="F99" s="28"/>
     </row>
-    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="5" t="s">
         <v>59</v>
       </c>
@@ -7590,7 +7613,7 @@
       <c r="E100" s="27"/>
       <c r="F100" s="28"/>
     </row>
-    <row r="101" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="5" t="s">
         <v>60</v>
       </c>
@@ -7601,7 +7624,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="28"/>
     </row>
-    <row r="102" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="5" t="s">
         <v>61</v>
       </c>
@@ -7612,7 +7635,7 @@
       <c r="E102" s="27"/>
       <c r="F102" s="28"/>
     </row>
-    <row r="103" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="5" t="s">
         <v>62</v>
       </c>
@@ -7623,7 +7646,7 @@
       <c r="E103" s="27"/>
       <c r="F103" s="28"/>
     </row>
-    <row r="104" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="5" t="s">
         <v>63</v>
       </c>
@@ -7634,7 +7657,7 @@
       <c r="E104" s="27"/>
       <c r="F104" s="28"/>
     </row>
-    <row r="105" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="5" t="s">
         <v>64</v>
       </c>
@@ -7645,7 +7668,7 @@
       <c r="E105" s="27"/>
       <c r="F105" s="28"/>
     </row>
-    <row r="106" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="5" t="s">
         <v>65</v>
       </c>
@@ -7656,7 +7679,7 @@
       <c r="E106" s="27"/>
       <c r="F106" s="28"/>
     </row>
-    <row r="107" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="5" t="s">
         <v>66</v>
       </c>
@@ -7667,7 +7690,7 @@
       <c r="E107" s="27"/>
       <c r="F107" s="28"/>
     </row>
-    <row r="108" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="5" t="s">
         <v>67</v>
       </c>
@@ -7678,7 +7701,7 @@
       <c r="E108" s="27"/>
       <c r="F108" s="28"/>
     </row>
-    <row r="109" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="5" t="s">
         <v>68</v>
       </c>
@@ -7689,7 +7712,7 @@
       <c r="E109" s="27"/>
       <c r="F109" s="28"/>
     </row>
-    <row r="110" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="5" t="s">
         <v>69</v>
       </c>
@@ -7700,7 +7723,7 @@
       <c r="E110" s="27"/>
       <c r="F110" s="28"/>
     </row>
-    <row r="111" spans="2:6" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>70</v>
       </c>
@@ -7712,13 +7735,7 @@
       <c r="F111" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F111">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:F111"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
